--- a/public/sample_uploads/fund_ratios/capital_commitments.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_commitments.xlsx
@@ -473,7 +473,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -701,39 +701,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,15 +754,6 @@
     <cellStyle name="Normal 4" xfId="23"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1006,7 +997,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/fund_ratios/capital_commitments.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_commitments.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -527,6 +527,9 @@
     <t xml:space="preserve">Update Only</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSTF3</t>
   </si>
   <si>
@@ -549,6 +552,9 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">TSTF4</t>
@@ -996,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,50 +1084,55 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>500000000</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>45017</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>12500000</v>
@@ -1130,29 +1141,32 @@
         <v>1000000000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6" t="n">
         <v>45017</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>25</v>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
